--- a/doc/descriptions/Очистка - Обработка05_02_2025.xlsx
+++ b/doc/descriptions/Очистка - Обработка05_02_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDSRW_UI\doc\descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C31FFFDB-D8AB-4227-975D-290822FFB9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26551343-C6EF-459A-AE53-F051849386C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A940AE0D-6784-4CB1-983A-894A92DEC1D3}"/>
   </bookViews>
@@ -1136,6 +1136,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,18 +1183,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2091,7 +2091,7 @@
   <dimension ref="B1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,10 +2789,10 @@
       <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="62" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="43" t="s">
@@ -2805,16 +2805,16 @@
         <v>44</v>
       </c>
       <c r="F4" s="55"/>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="65" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="75"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="43" t="s">
         <v>62</v>
       </c>
@@ -2825,14 +2825,14 @@
         <v>45</v>
       </c>
       <c r="F5" s="55"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="62" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="44" t="s">
@@ -2845,12 +2845,12 @@
         <v>44</v>
       </c>
       <c r="F6" s="55"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="75"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="44" t="s">
         <v>46</v>
       </c>
@@ -2861,14 +2861,14 @@
         <v>45</v>
       </c>
       <c r="F7" s="55"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="62" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="44" t="s">
@@ -2880,15 +2880,15 @@
       <c r="E8" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="75" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="56"/>
-      <c r="H8" s="61"/>
+      <c r="H8" s="65"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="75"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="44" t="s">
         <v>52</v>
       </c>
@@ -2898,15 +2898,15 @@
       <c r="E9" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="71"/>
+      <c r="F9" s="75"/>
       <c r="G9" s="56"/>
-      <c r="H9" s="61"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="62" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="44" t="s">
@@ -2918,13 +2918,13 @@
       <c r="E10" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="71"/>
+      <c r="F10" s="75"/>
       <c r="G10" s="56"/>
-      <c r="H10" s="61"/>
+      <c r="H10" s="65"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="75"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="44" t="s">
         <v>47</v>
       </c>
@@ -2934,15 +2934,15 @@
       <c r="E11" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="71"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="56"/>
-      <c r="H11" s="61"/>
+      <c r="H11" s="65"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="62" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="44" t="s">
@@ -2954,13 +2954,13 @@
       <c r="E12" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="71"/>
+      <c r="F12" s="75"/>
       <c r="G12" s="56"/>
-      <c r="H12" s="61"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="75"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="44" t="s">
         <v>48</v>
       </c>
@@ -2970,15 +2970,15 @@
       <c r="E13" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="71"/>
+      <c r="F13" s="75"/>
       <c r="G13" s="56"/>
-      <c r="H13" s="61"/>
+      <c r="H13" s="65"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="43" t="s">
@@ -2990,13 +2990,13 @@
       <c r="E14" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="71"/>
+      <c r="F14" s="75"/>
       <c r="G14" s="56"/>
-      <c r="H14" s="61"/>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="75"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="43" t="s">
         <v>64</v>
       </c>
@@ -3006,15 +3006,15 @@
       <c r="E15" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="71"/>
+      <c r="F15" s="75"/>
       <c r="G15" s="56"/>
-      <c r="H15" s="61"/>
+      <c r="H15" s="65"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="68" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="44" t="s">
@@ -3028,11 +3028,11 @@
       </c>
       <c r="F16" s="47"/>
       <c r="G16" s="56"/>
-      <c r="H16" s="61"/>
+      <c r="H16" s="65"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="44" t="s">
         <v>14</v>
       </c>
@@ -3044,13 +3044,13 @@
       </c>
       <c r="F17" s="47"/>
       <c r="G17" s="56"/>
-      <c r="H17" s="61"/>
+      <c r="H17" s="65"/>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="68" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="43" t="s">
@@ -3059,68 +3059,59 @@
       <c r="D18" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="69" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="55"/>
       <c r="G18" s="56"/>
-      <c r="H18" s="61"/>
+      <c r="H18" s="65"/>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="43" t="s">
         <v>65</v>
       </c>
       <c r="D19" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="65"/>
+      <c r="E19" s="69"/>
       <c r="F19" s="55"/>
       <c r="G19" s="56"/>
-      <c r="H19" s="61"/>
+      <c r="H19" s="65"/>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="69" t="s">
         <v>34</v>
       </c>
       <c r="F20" s="55"/>
       <c r="G20" s="56"/>
-      <c r="H20" s="61"/>
+      <c r="H20" s="65"/>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="68"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
       <c r="F21" s="57"/>
       <c r="G21" s="58"/>
-      <c r="H21" s="62"/>
+      <c r="H21" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="H4:H21"/>
     <mergeCell ref="A16:A17"/>
@@ -3137,6 +3128,15 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
